--- a/dataSet/win_xp_MGTV.xlsx
+++ b/dataSet/win_xp_MGTV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF216D23-4E42-4809-A091-DF9D958A1182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,6 +66,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -116,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +149,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +201,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,220 +393,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0</v>
+        <v>2.3085838189748499E-2</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>4.9525684861234098E-2</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>9.8264061923941298E-2</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0.18190226998334599</v>
       </c>
       <c r="E1">
-        <v>2</v>
+        <v>0.31662134568333</v>
       </c>
       <c r="F1">
-        <v>2</v>
+        <v>0.52180226318506095</v>
       </c>
       <c r="G1">
-        <v>2</v>
+        <v>0.81923199014638004</v>
       </c>
       <c r="H1">
-        <v>4</v>
+        <v>1.2320190263622099</v>
       </c>
       <c r="I1">
-        <v>5</v>
+        <v>1.7833939929037801</v>
       </c>
       <c r="J1">
-        <v>6</v>
+        <v>2.4955756559141302</v>
       </c>
       <c r="K1">
-        <v>6</v>
+        <v>3.38884816070926</v>
       </c>
       <c r="L1">
-        <v>9</v>
+        <v>4.4809382966284499</v>
       </c>
       <c r="M1">
-        <v>9</v>
+        <v>5.7867206117853103</v>
       </c>
       <c r="N1">
-        <v>10</v>
+        <v>7.3182269575919898</v>
       </c>
       <c r="O1">
-        <v>10</v>
+        <v>9.0849026881228507</v>
       </c>
       <c r="P1">
-        <v>10</v>
+        <v>11.094035322014401</v>
       </c>
       <c r="Q1">
-        <v>13</v>
+        <v>13.3512800155266</v>
       </c>
       <c r="R1">
-        <v>16</v>
+        <v>15.861214919169001</v>
       </c>
       <c r="S1">
-        <v>20</v>
+        <v>18.627873549792199</v>
       </c>
       <c r="T1">
-        <v>21</v>
+        <v>21.655216781810399</v>
       </c>
       <c r="U1">
-        <v>23</v>
+        <v>24.947521303738</v>
       </c>
       <c r="V1">
-        <v>26</v>
+        <v>28.509672976547701</v>
       </c>
       <c r="W1">
-        <v>31</v>
+        <v>32.347361993440899</v>
       </c>
       <c r="X1">
-        <v>35</v>
+        <v>36.467182227705301</v>
       </c>
       <c r="Y1">
-        <v>39</v>
+        <v>40.876640160794203</v>
       </c>
       <c r="Z1">
-        <v>46</v>
+        <v>45.584079935109301</v>
       </c>
       <c r="AA1">
-        <v>59</v>
+        <v>50.598531005544501</v>
       </c>
       <c r="AB1">
-        <v>63</v>
+        <v>55.929484133015798</v>
       </c>
       <c r="AC1">
-        <v>68</v>
+        <v>61.586600539982904</v>
       </c>
       <c r="AD1">
-        <v>70</v>
+        <v>67.579358305443606</v>
       </c>
       <c r="AE1">
-        <v>73</v>
+        <v>73.916639804122696</v>
       </c>
       <c r="AF1">
-        <v>81</v>
+        <v>80.606264409411807</v>
       </c>
       <c r="AG1">
-        <v>88</v>
+        <v>87.654471936719403</v>
       </c>
       <c r="AH1">
-        <v>95</v>
+        <v>95.065364494701797</v>
       </c>
       <c r="AI1">
-        <v>105</v>
+        <v>102.840317555037</v>
       </c>
       <c r="AJ1">
-        <v>106</v>
+        <v>110.97737507446</v>
       </c>
       <c r="AK1">
-        <v>110</v>
+        <v>119.47064821775599</v>
       </c>
       <c r="AL1">
-        <v>119</v>
+        <v>128.309742309028</v>
       </c>
       <c r="AM1">
-        <v>127</v>
+        <v>137.47924159458299</v>
       </c>
       <c r="AN1">
-        <v>142</v>
+        <v>146.95828559011301</v>
       </c>
       <c r="AO1">
-        <v>154</v>
+        <v>156.72027343420899</v>
       </c>
       <c r="AP1">
-        <v>154</v>
+        <v>166.732732944514</v>
       </c>
       <c r="AQ1">
-        <v>177</v>
+        <v>176.95738818518399</v>
       </c>
       <c r="AR1">
-        <v>192</v>
+        <v>187.35045271459299</v>
       </c>
       <c r="AS1">
-        <v>201</v>
+        <v>197.86316506359799</v>
       </c>
       <c r="AT1">
-        <v>211</v>
+        <v>208.442568688622</v>
       </c>
       <c r="AU1">
-        <v>221</v>
+        <v>219.032521557097</v>
       </c>
       <c r="AV1">
-        <v>227</v>
+        <v>229.57490217616001</v>
       </c>
       <c r="AW1">
-        <v>238</v>
+        <v>240.010961270824</v>
       </c>
       <c r="AX1">
-        <v>262</v>
+        <v>250.282753673911</v>
       </c>
       <c r="AY1">
-        <v>265</v>
+        <v>260.33457538040301</v>
       </c>
       <c r="AZ1">
-        <v>270</v>
+        <v>270.114327684057</v>
       </c>
       <c r="BA1">
-        <v>272</v>
+        <v>279.57473453942401</v>
       </c>
       <c r="BB1">
-        <v>283</v>
+        <v>288.67435043612898</v>
       </c>
       <c r="BC1">
-        <v>289</v>
+        <v>297.37831279768398</v>
       </c>
       <c r="BD1">
-        <v>292</v>
+        <v>305.65881312566</v>
       </c>
       <c r="BE1">
-        <v>302</v>
+        <v>313.49528232104899</v>
       </c>
       <c r="BF1">
-        <v>310</v>
+        <v>320.874305398731</v>
       </c>
       <c r="BG1">
-        <v>311</v>
+        <v>327.78929717547902</v>
       </c>
       <c r="BH1">
-        <v>318</v>
+        <v>334.23998216084601</v>
       </c>
       <c r="BI1">
-        <v>353</v>
+        <v>340.23172830848199</v>
       </c>
       <c r="BJ1">
-        <v>359</v>
+        <v>345.77478571883898</v>
       </c>
       <c r="BK1">
-        <v>361</v>
+        <v>350.88347860429798</v>
       </c>
       <c r="BL1">
-        <v>368</v>
+        <v>355.57539294317598</v>
       </c>
       <c r="BM1">
-        <v>374</v>
+        <v>359.87059446850299</v>
       </c>
       <c r="BN1">
-        <v>382</v>
+        <v>363.79090308552401</v>
       </c>
       <c r="BO1">
-        <v>383</v>
+        <v>367.359241408397</v>
       </c>
       <c r="BP1">
-        <v>385</v>
+        <v>370.599067511074</v>
       </c>
       <c r="BQ1">
-        <v>385</v>
+        <v>373.53389559662202</v>
+      </c>
+      <c r="BR1">
+        <v>376.186903271799</v>
+      </c>
+      <c r="BS1">
+        <v>378.58062046247102</v>
+      </c>
+      <c r="BT1">
+        <v>380.73669259515702</v>
+      </c>
+      <c r="BU1">
+        <v>382.675709308492</v>
+      </c>
+      <c r="BV1">
+        <v>384.41708942852398</v>
+      </c>
+      <c r="BW1">
+        <v>385.97901302994399</v>
+      </c>
+      <c r="BX1">
+        <v>387.37839192045698</v>
+      </c>
+      <c r="BY1">
+        <v>388.63087066732101</v>
+      </c>
+      <c r="BZ1">
+        <v>389.750851207533</v>
+      </c>
+      <c r="CA1">
+        <v>390.75153505217901</v>
+      </c>
+      <c r="CB1">
+        <v>391.64497804523501</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -595,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
